--- a/mini_s_convertible.xlsx
+++ b/mini_s_convertible.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcfasel/git/mini_s_convertible_graph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcfasel/git/car_graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF968880-BAA0-274E-BE2A-D168ADD486C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5073D64-D820-F145-A0B6-94C56F2AFC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39560" yWindow="12500" windowWidth="27640" windowHeight="16940" xr2:uid="{E430248E-0659-4C43-B5C8-094979A09CED}"/>
+    <workbookView xWindow="6260" yWindow="12880" windowWidth="27640" windowHeight="16940" xr2:uid="{E430248E-0659-4C43-B5C8-094979A09CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="68">
   <si>
     <t>Year</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Cooper S Steptronic</t>
   </si>
   <si>
-    <t>Dealer used</t>
-  </si>
-  <si>
     <t>John Cooper Works</t>
   </si>
   <si>
@@ -231,13 +228,25 @@
   </si>
   <si>
     <t>Cooper S Manual MY05</t>
+  </si>
+  <si>
+    <t>Cooper S Manual F</t>
+  </si>
+  <si>
+    <t>15.07.24</t>
+  </si>
+  <si>
+    <t>Autosport Prestige</t>
+  </si>
+  <si>
+    <t>AutoSport</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,6 +258,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,10 +290,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA962B88-8C59-D541-A09D-ED0073DD5D7C}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -669,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
         <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -854,7 +871,7 @@
         <v>149573</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -871,7 +888,7 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2">
         <v>13990</v>
@@ -880,7 +897,7 @@
         <v>184000</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -906,7 +923,7 @@
         <v>121000</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
@@ -920,7 +937,7 @@
         <v>2010</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -932,7 +949,7 @@
         <v>84750</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
@@ -946,7 +963,7 @@
         <v>2010</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
@@ -958,7 +975,7 @@
         <v>112887</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
@@ -972,7 +989,7 @@
         <v>2012</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
@@ -984,7 +1001,7 @@
         <v>150246</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>36</v>
@@ -998,7 +1015,7 @@
         <v>2013</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -1010,7 +1027,7 @@
         <v>77594</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>39</v>
@@ -1024,10 +1041,10 @@
         <v>2015</v>
       </c>
       <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
       </c>
       <c r="D16" s="2">
         <v>27890</v>
@@ -1036,7 +1053,7 @@
         <v>55108</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>40</v>
@@ -1050,10 +1067,10 @@
         <v>2018</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
       <c r="D17" s="2">
         <v>39990</v>
@@ -1062,10 +1079,10 @@
         <v>23862</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
         <v>22</v>
@@ -1492,10 +1509,10 @@
         <v>2014</v>
       </c>
       <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
         <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
       </c>
       <c r="D34" s="2">
         <v>24950</v>
@@ -1518,10 +1535,10 @@
         <v>2014</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="2">
         <v>23495</v>
@@ -1570,10 +1587,10 @@
         <v>2010</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="2">
         <v>21000</v>
@@ -1622,10 +1639,10 @@
         <v>2010</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="2">
         <v>19888</v>
@@ -1648,10 +1665,10 @@
         <v>2013</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="2">
         <v>19500</v>
@@ -1700,10 +1717,10 @@
         <v>2010</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="2">
         <v>18500</v>
@@ -1726,10 +1743,10 @@
         <v>2006</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="2">
         <v>15900</v>
@@ -1752,10 +1769,10 @@
         <v>2005</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="2">
         <v>15900</v>
@@ -1778,10 +1795,10 @@
         <v>2009</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" s="2">
         <v>14342</v>
@@ -1804,10 +1821,10 @@
         <v>2006</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="2">
         <v>13450</v>
@@ -1830,10 +1847,10 @@
         <v>2010</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="2">
         <v>13250</v>
@@ -1856,10 +1873,10 @@
         <v>2006</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="2">
         <v>12150</v>
@@ -1877,15 +1894,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2007</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="2">
         <v>11000</v>
@@ -1903,15 +1920,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2007</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" s="2">
         <v>10999</v>
@@ -1929,15 +1946,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2005</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" s="2">
         <v>10200</v>
@@ -1955,15 +1972,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2007</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" s="2">
         <v>10000</v>
@@ -1981,15 +1998,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2007</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" s="2">
         <v>10000</v>
@@ -2007,15 +2024,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2008</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" s="2">
         <v>9990</v>
@@ -2033,15 +2050,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2008</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D55" s="2">
         <v>9000</v>
@@ -2057,6 +2074,267 @@
       </c>
       <c r="H55" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E56" s="3">
+        <v>121126</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="3">
+        <v>16999</v>
+      </c>
+      <c r="E57" s="3">
+        <v>88007</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>108986</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>85532</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>142000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3">
+        <v>9999</v>
+      </c>
+      <c r="E61" s="3">
+        <v>146214</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>145795</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E63" s="3">
+        <v>124900</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E64" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
